--- a/biology/Botanique/Morta_(matériau)/Morta_(matériau).xlsx
+++ b/biology/Botanique/Morta_(matériau)/Morta_(matériau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morta_(mat%C3%A9riau)</t>
+          <t>Morta_(matériau)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le morta, (bois mort), aussi connu sous le nom de bois des marais[1], est un bois en cours de fossilisation. Très rare et très complexe à extraire, on en retrouve par exemple en France (Brière[2]), en Allemagne[3], ou en Nouvelle-Zélande[4]. Provenant majoritairement de chêne en Europe, on peut aussi trouver du morta de bouleau, ou de pin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le morta, (bois mort), aussi connu sous le nom de bois des marais, est un bois en cours de fossilisation. Très rare et très complexe à extraire, on en retrouve par exemple en France (Brière), en Allemagne, ou en Nouvelle-Zélande. Provenant majoritairement de chêne en Europe, on peut aussi trouver du morta de bouleau, ou de pin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morta_(mat%C3%A9riau)</t>
+          <t>Morta_(matériau)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conservé dans un milieu anoxique et acide, ce bois s'est lentement minéralisé au fil du passage de l'eau.
-Dans le cas du morta noir de Brière, il s'agit d'une forêt de chênes qui s'est trouvée submergée il y a 5 000 ans. La lignine est en cours de minéralisation, se chargeant en silice[5]. Le morta rouge de Brière provient lui d'une forêt de bouleaux, submergée il y a 3 700 ans[6].
+Dans le cas du morta noir de Brière, il s'agit d'une forêt de chênes qui s'est trouvée submergée il y a 5 000 ans. La lignine est en cours de minéralisation, se chargeant en silice. Le morta rouge de Brière provient lui d'une forêt de bouleaux, submergée il y a 3 700 ans.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Morta_(mat%C3%A9riau)</t>
+          <t>Morta_(matériau)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">G. Lenôtre écrit que « deux jours par année seulement les Briérons (...) sont autorisés à fouiller la vase pour en retirer ces troncs d'arbres, douze ou quinze fois centenaires, aussi durs et noirs que l'ébène »[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G. Lenôtre écrit que « deux jours par année seulement les Briérons (...) sont autorisés à fouiller la vase pour en retirer ces troncs d'arbres, douze ou quinze fois centenaires, aussi durs et noirs que l'ébène ».
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Morta_(mat%C3%A9riau)</t>
+          <t>Morta_(matériau)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bois, devenu imputrescible, présente un aspect fort esthétique une fois poli. Il peut présenter l'aspect de l'ébène pour le morta noir. Il a été utilisé pour faire des lambris ou des meubles ou servir de bois de charpente en Brière.
-Aujourd'hui, il est utilisé pour produire des manches de couteaux[8], des pipes[9]des sculptures[6] ou des bijoux ou du plaquage. Seuls 10 à 20 % du matériau récupéré sont exploitables : des craquelures apparaissent en effet lors du séchage[5],. Le morta fait aussi un bon matériau pour les sillets de tête en lutherie, grâce à ses propriétés auto-lubrifiantes proches du graphite qui laissent la corde libre de glisser dans la gorge, et par sa bonne transmission du son.
+Aujourd'hui, il est utilisé pour produire des manches de couteaux, des pipesdes sculptures ou des bijoux ou du plaquage. Seuls 10 à 20 % du matériau récupéré sont exploitables : des craquelures apparaissent en effet lors du séchage,. Le morta fait aussi un bon matériau pour les sillets de tête en lutherie, grâce à ses propriétés auto-lubrifiantes proches du graphite qui laissent la corde libre de glisser dans la gorge, et par sa bonne transmission du son.
 </t>
         </is>
       </c>
